--- a/biology/Botanique/Ternstroemia_dentata/Ternstroemia_dentata.xlsx
+++ b/biology/Botanique/Ternstroemia_dentata/Ternstroemia_dentata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ternstroemia dentata est une espèce  de plantes à fleurs de la famille des Pentaphylacaceae (anciennement des Ternstroemiaceae ou des Theaceae) avec une répartition néotropicale.
-En Guyane, Ternstroemia dentata est une des espèces connues sous le nom de Palétuvier montagne[4] (nom partagé notamment avec Tovomita guianensis).
-Au Suriname, on l'appelle Sabana-mangro (Sranan tongo), Jesikoesi (Arawak)[5].
+En Guyane, Ternstroemia dentata est une des espèces connues sous le nom de Palétuvier montagne (nom partagé notamment avec Tovomita guianensis).
+Au Suriname, on l'appelle Sabana-mangro (Sranan tongo), Jesikoesi (Arawak).
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ternstroemia dentata est un arbre ou un arbuste à rameaux grêles.
-Le bois est à grain fin, mi-dur et mi-lourd (densité : 0,75-0,85), de couleur brun violacé pâle et terne avec de grandes mailles plus foncées apparente[6].
+Le bois est à grain fin, mi-dur et mi-lourd (densité : 0,75-0,85), de couleur brun violacé pâle et terne avec de grandes mailles plus foncées apparente.
 Les feuilles sont submembraneuses ou coriaces, longues de 6-13(-17) cm pour 2-6(7) cm de large, ponctuées de noir en dessous, à marge nettement dentée à serrato-dentée, de forme elliptique, obovale à ovale-oblongue, à apex obtus acuminé, et à base wikt:cunéiforme ou aiguë.
 La nervure est médiane en relief sur le dessus, saillante en dessous, et les 8–12 paires de nervures latérales généralement visibles sur les deux faces.
 Le pétiole est long de (0,7–)1 à 1,5(−2) cm. 
@@ -526,7 +540,7 @@
 Les pétales sont caducs, fimbriés, de couleur rose (ou blanche à extrémité jaune), longs de 8 mm pour 3 mm de large à la base, où ils sont réunis.
 Les environ 35 étamines, sont bisériées, de même taille que les pétales, avec des filets épais, très courts (1,5 mm), le connectif avec un appendice long de 2-2,5 mm, et les anthères caudées-acuminées.
 L'ovaire est conique, haut de 3 mm, contenant (2)4 loges (les variations liées à de fausses séparations), contenant (2)4 ovules, avec un style plus long que l'ovaire (2,5-3 mm) et le stigmate punctiforme.
-Le fruit est une capsule stipitée, indéhiscente, ovoïde ou subglobuleuse, de 1-1,5 cm de diamètre, avec le calice persistant, et couronné par le style persistant, et contenant 4 graines[5],[7],[8],[9],[10].
+Le fruit est une capsule stipitée, indéhiscente, ovoïde ou subglobuleuse, de 1-1,5 cm de diamètre, avec le calice persistant, et couronné par le style persistant, et contenant 4 graines.
 </t>
         </is>
       </c>
@@ -555,9 +569,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ternstroemia dentata est présent au Venezuela (est du Bolívar), au Guyana, au Suriname, en Guyane, et au nord du Brésil (Amazonas, Pará, Guayana baja, Roraima, Xingu-Tapajós, Madeira, Rondônia[11],[10]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ternstroemia dentata est présent au Venezuela (est du Bolívar), au Guyana, au Suriname, en Guyane, et au nord du Brésil (Amazonas, Pará, Guayana baja, Roraima, Xingu-Tapajós, Madeira, Rondônia,).
 </t>
         </is>
       </c>
@@ -586,11 +602,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ternstroemia dentata est un arbre rare dans les savanes sur sol sableux et les bosquets de savane[5], ou parmi la végétation arbustive des inselbergs[12].
-Les fleurs de Ternstroemia dentata sont pollinisées en Amazonie centrale par des abeilles femelles Euglossa sp. et Paratetrapedia sp., effectuant un "butinage vibratoire" qui permet d'éjecter le pollen des anthères[13], et attirent l'abeille Euglossa ignita Smith 1874 qui recueille le parfum émis par les pétales qu'ils grattent[14].
-Ses fruits charnus sont ornithochores[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ternstroemia dentata est un arbre rare dans les savanes sur sol sableux et les bosquets de savane, ou parmi la végétation arbustive des inselbergs.
+Les fleurs de Ternstroemia dentata sont pollinisées en Amazonie centrale par des abeilles femelles Euglossa sp. et Paratetrapedia sp., effectuant un "butinage vibratoire" qui permet d'éjecter le pollen des anthères, et attirent l'abeille Euglossa ignita Smith 1874 qui recueille le parfum émis par les pétales qu'ils grattent.
+Ses fruits charnus sont ornithochores.
 </t>
         </is>
       </c>
@@ -619,10 +637,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorce épaisse de Ternstroemia dentata, avec un rhytidome cendré et un liber rougeàtre, est employée pour le tannage du cuir[16].
-Le bois natruellement durable, de couleur blanche devenant roussâtre, sert pour la fabrication de bardeaux[4],[17]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce épaisse de Ternstroemia dentata, avec un rhytidome cendré et un liber rougeàtre, est employée pour le tannage du cuir.
+Le bois natruellement durable, de couleur blanche devenant roussâtre, sert pour la fabrication de bardeaux,
 </t>
         </is>
       </c>
@@ -651,9 +671,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[18] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « TAONABO (dentata) foliis ovato-oblongis, denticulatis, Roribus flaveſcentibus, fructu minore. (Tabula 227.)
 Arbor trunco viginti-pedali, in ſummitate ramos plures, rectos &amp; declinatos, emittente ; ramulis alternis, folioſis. Folia alterna, ovata, in acumen longum definentia, ſerrata, glabra, rigida, petiolata. Flores ſolitarii, axillares, &amp; ſuprà ramos.
 Florebat, fructumque ferebat Auguſto &amp; Septembri.
